--- a/MyGtn/MyGtn/static/template_for_import_EntityNaturalPerson4084.xlsx
+++ b/MyGtn/MyGtn/static/template_for_import_EntityNaturalPerson4084.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>comment</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t>Земля матушка!</t>
+  </si>
+  <si>
+    <t>fasfsd</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>Вакма</t>
+  </si>
+  <si>
+    <t>Ушар</t>
+  </si>
+  <si>
+    <t>Хабдабду</t>
   </si>
 </sst>
 </file>
@@ -431,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -506,14 +521,14 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
+      <c r="H2">
+        <v>2134213</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -539,16 +554,13 @@
         <v>18</v>
       </c>
       <c r="H3">
-        <v>4533</v>
+        <v>5332</v>
       </c>
       <c r="I3">
-        <v>324234</v>
+        <v>234433</v>
       </c>
       <c r="J3" s="3">
-        <v>36558</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
+        <v>40492</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -575,6 +587,32 @@
       </c>
       <c r="J4" s="3">
         <v>40179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3">
+        <v>36892</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>7928</v>
+      </c>
+      <c r="I5">
+        <v>748223</v>
+      </c>
+      <c r="J5" s="3">
+        <v>40493</v>
       </c>
     </row>
   </sheetData>

--- a/MyGtn/MyGtn/static/template_for_import_EntityNaturalPerson4084.xlsx
+++ b/MyGtn/MyGtn/static/template_for_import_EntityNaturalPerson4084.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -458,7 +458,7 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="9" width="11" customWidth="1"/>
@@ -544,9 +544,6 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>4029802840</v>
-      </c>
       <c r="F3" s="3">
         <v>36526</v>
       </c>
